--- a/DATA_goal/Junction_Flooding_129.xlsx
+++ b/DATA_goal/Junction_Flooding_129.xlsx
@@ -451,26 +451,26 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41561.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.85</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.55</v>
+        <v>0.66</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>69.94</v>
+        <v>6.99</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>10.65</v>
+        <v>1.07</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41561.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.15</v>
+        <v>0.22</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>31.34</v>
+        <v>3.13</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.22</v>
+        <v>0.32</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41561.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>39.61</v>
+        <v>3.96</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.69</v>
+        <v>3.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>51.48</v>
+        <v>5.15</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.35</v>
+        <v>2.23</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.55</v>
+        <v>1.56</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>212.21</v>
+        <v>21.22</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>40.24</v>
+        <v>4.02</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.84</v>
+        <v>2.68</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.54</v>
+        <v>2.55</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.75</v>
+        <v>1.17</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.36</v>
+        <v>1.74</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>46.14</v>
+        <v>4.61</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41561.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.69</v>
+        <v>1.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.33</v>
+        <v>3.13</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>102.42</v>
+        <v>10.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.31</v>
+        <v>2.03</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>28.38</v>
+        <v>2.84</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41561.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>20.99</v>
+        <v>2.1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>46.11</v>
+        <v>4.61</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>38.04</v>
+        <v>3.8</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>16.53</v>
+        <v>1.65</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>63.08</v>
+        <v>6.31</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>25.87</v>
+        <v>2.59</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.75</v>
+        <v>1.17</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.69</v>
+        <v>1.87</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>19.6</v>
+        <v>1.96</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>23.82</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>246.64</v>
+        <v>24.66</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>46.62</v>
+        <v>4.66</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>31.34</v>
+        <v>3.13</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>30.86</v>
+        <v>3.09</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.84</v>
+        <v>1.98</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>56.91</v>
+        <v>5.69</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41561.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>38.85</v>
+        <v>3.88</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>32.04</v>
+        <v>3.2</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>56.32</v>
+        <v>5.63</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>21.8</v>
+        <v>2.18</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20.09</v>
+        <v>2.01</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>206.61</v>
+        <v>20.66</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>39.36</v>
+        <v>3.94</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>26.45</v>
+        <v>2.65</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>27.08</v>
+        <v>2.71</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.05</v>
+        <v>1.2</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>50.97</v>
+        <v>5.1</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.12</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41561.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.98</v>
+        <v>2.1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.96</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>45.99</v>
+        <v>4.6</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>37.95</v>
+        <v>3.79</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.53</v>
+        <v>1.65</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>65.12</v>
+        <v>6.51</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>25.75</v>
+        <v>2.58</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.5</v>
+        <v>1.75</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.54</v>
+        <v>1.95</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>23.75</v>
+        <v>2.37</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>245.53</v>
+        <v>24.55</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>46.47</v>
+        <v>4.65</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31.31</v>
+        <v>3.13</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>31.54</v>
+        <v>3.15</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.68</v>
+        <v>1.97</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>58.91</v>
+        <v>5.89</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.08</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41561.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>19.95</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.16</v>
+        <v>1.52</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>43.72</v>
+        <v>4.37</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>36.08</v>
+        <v>3.61</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>62.74</v>
+        <v>6.27</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>24.47</v>
+        <v>2.45</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>17.65</v>
+        <v>1.77</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>22.58</v>
+        <v>2.26</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>232.96</v>
+        <v>23.3</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>44.18</v>
+        <v>4.42</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>29.78</v>
+        <v>2.98</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>30.26</v>
+        <v>3.03</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>18.68</v>
+        <v>1.87</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>56.8</v>
+        <v>5.68</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41561.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>21.9</v>
+        <v>2.19</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>54.46</v>
+        <v>5.45</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>9.92</v>
+        <v>0.99</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>20.14</v>
+        <v>2.01</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_129.xlsx
+++ b/DATA_goal/Junction_Flooding_129.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41561.34027777778</v>
+        <v>44810.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="R2" s="4" t="n">
+      <c r="T2" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.15</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.2</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.3</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.25</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41561.34722222222</v>
+        <v>44810.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.74</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="T3" s="4" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="Y3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="AB3" s="4" t="n">
         <v>0.29</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.28</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.96</v>
+        <v>1.29</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41561.35416666666</v>
+        <v>44810.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.22</v>
+        <v>19.84</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.02</v>
+        <v>3.77</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.68</v>
+        <v>2.57</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.93</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.61</v>
+        <v>4.37</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41561.36111111111</v>
+        <v>44810.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.88</v>
+        <v>1.93</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.97</v>
+        <v>4.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.62</v>
+        <v>3.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.13</v>
+        <v>5.74</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.12</v>
+        <v>2.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.79</v>
+        <v>1.49</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.84</v>
+        <v>1.78</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.6</v>
+        <v>1.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.24</v>
+        <v>21.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.03</v>
+        <v>4.1</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.65</v>
+        <v>1.37</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.35</v>
+        <v>2.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.75</v>
+        <v>1.47</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.47</v>
+        <v>2.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.59</v>
+        <v>1.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.57</v>
+        <v>1.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.88</v>
+        <v>1.73</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.84</v>
+        <v>5.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.82</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41561.36805555555</v>
+        <v>44810.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.61</v>
+        <v>4.45</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.31</v>
+        <v>13.72</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.59</v>
+        <v>2.14</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.77</v>
+        <v>1.32</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.65</v>
+        <v>1.16</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>24.66</v>
+        <v>15.55</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.66</v>
+        <v>4.71</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.13</v>
+        <v>3.48</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.09</v>
+        <v>5.84</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.23</v>
+        <v>0.87</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.69</v>
+        <v>12.59</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.89</v>
+        <v>0.66</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41561.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH7" s="4" t="n">
         <v>1.61</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41561.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41561.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41561.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41561.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>24.88</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>40.66</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>158.55</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>19.81</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>36.52</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>12.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_129.xlsx
+++ b/DATA_goal/Junction_Flooding_129.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44810.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44810.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.45</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.75</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.87</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.44</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.82</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.66</v>
+        <v>66.61</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.95</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.93</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44810.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.8</v>
+        <v>18.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.09</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.81</v>
+        <v>38.08</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.08</v>
+        <v>30.82</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.9</v>
+        <v>49.01</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.06</v>
+        <v>20.61</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.67</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.09</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.7</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.3</v>
+        <v>12.99</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.93</v>
+        <v>19.29</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.15</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.84</v>
+        <v>198.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.77</v>
+        <v>37.73</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.57</v>
+        <v>25.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.42</v>
+        <v>24.21</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.6</v>
+        <v>16.03</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.37</v>
+        <v>43.66</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.39</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44810.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.17</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.11</v>
+        <v>41.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.35</v>
+        <v>33.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.74</v>
+        <v>57.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.35</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.84</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.1</v>
+        <v>20.95</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.11</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.57</v>
+        <v>215.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.1</v>
+        <v>41</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.72</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.79</v>
+        <v>27.92</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.77</v>
+        <v>27.74</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.16</v>
+        <v>51.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_129.xlsx
+++ b/DATA_goal/Junction_Flooding_129.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44810.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
@@ -759,40 +759,40 @@
         <v>44810.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.45</v>
+        <v>7.446</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.77</v>
+        <v>4.765</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.725</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.29</v>
+        <v>14.288</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.75</v>
+        <v>10.746</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.26</v>
+        <v>4.262</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.87</v>
+        <v>15.873</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.01</v>
+        <v>7.012</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.95</v>
+        <v>2.955</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.51</v>
+        <v>4.514</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.44</v>
+        <v>5.436</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.92</v>
+        <v>6.923</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>1.56</v>
@@ -801,61 +801,61 @@
         <v>4.12</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.82</v>
+        <v>6.824</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.93</v>
+        <v>3.929</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.645</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>66.61</v>
+        <v>66.61199999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.45</v>
+        <v>13.446</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.95</v>
+        <v>4.949</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.33</v>
+        <v>9.329000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.16</v>
+        <v>5.157</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.632</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.48</v>
+        <v>7.484</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.95</v>
+        <v>3.949</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.94</v>
+        <v>2.943</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.24</v>
+        <v>4.237</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.96</v>
+        <v>5.963</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.93</v>
+        <v>12.926</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.27</v>
+        <v>2.266</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.28</v>
+        <v>5.282</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44810.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.04</v>
+        <v>18.044</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.09</v>
+        <v>13.089</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.893</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.08</v>
+        <v>38.083</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.82</v>
+        <v>30.824</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.17</v>
+        <v>13.175</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>49.01</v>
+        <v>49.006</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.61</v>
+        <v>20.606</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.1</v>
+        <v>9.096</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>13.67</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.09</v>
+        <v>15.092</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.7</v>
+        <v>16.702</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.34</v>
+        <v>4.344</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.99</v>
+        <v>12.993</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.29</v>
+        <v>19.292</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>11.15</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.544</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.385</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>198.42</v>
+        <v>198.423</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.73</v>
+        <v>37.727</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.76</v>
+        <v>12.757</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.74</v>
+        <v>25.739</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.66</v>
+        <v>13.661</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.77</v>
+        <v>1.771</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.21</v>
+        <v>24.207</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.02</v>
+        <v>11.021</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.31</v>
+        <v>9.305999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.5</v>
+        <v>11.497</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.03</v>
+        <v>16.031</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.66</v>
+        <v>43.665</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.92</v>
+        <v>6.916</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.39</v>
+        <v>15.387</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44810.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_129.xlsx
+++ b/DATA_goal/Junction_Flooding_129.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,13 +452,13 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -970,7 +970,7 @@
         <v>19.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.17</v>
+        <v>14.167</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.85</v>
@@ -979,91 +979,195 @@
         <v>41.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.5</v>
+        <v>33.502</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.42</v>
+        <v>14.417</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.39</v>
+        <v>57.392</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>22.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.956</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.93</v>
+        <v>14.931</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.35</v>
+        <v>16.353</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.84</v>
+        <v>17.837</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.71</v>
+        <v>4.709</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.24</v>
+        <v>14.242</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.95</v>
+        <v>20.952</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.11</v>
+        <v>12.108</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.68</v>
+        <v>215.679</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41</v>
+        <v>40.995</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.72</v>
+        <v>13.723</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.92</v>
+        <v>27.915</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.74</v>
+        <v>14.739</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.92</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.74</v>
+        <v>27.743</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.95</v>
+        <v>11.947</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.21</v>
+        <v>10.207</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.43</v>
+        <v>12.433</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.31</v>
+        <v>17.312</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.58</v>
+        <v>51.583</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.56</v>
+        <v>7.561</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.75</v>
+        <v>16.749</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44810.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_129.xlsx
+++ b/DATA_goal/Junction_Flooding_129.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,13 +452,13 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -970,7 +970,7 @@
         <v>19.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.167</v>
+        <v>14.17</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.85</v>
@@ -979,195 +979,91 @@
         <v>41.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.502</v>
+        <v>33.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.417</v>
+        <v>14.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.392</v>
+        <v>57.39</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>22.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.956</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.931</v>
+        <v>14.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.353</v>
+        <v>16.35</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.837</v>
+        <v>17.84</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.709</v>
+        <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.242</v>
+        <v>14.24</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.952</v>
+        <v>20.95</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.108</v>
+        <v>12.11</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.446</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.679</v>
+        <v>215.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40.995</v>
+        <v>41</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.723</v>
+        <v>13.72</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.915</v>
+        <v>27.92</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.739</v>
+        <v>14.74</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.92</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.743</v>
+        <v>27.74</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.947</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.207</v>
+        <v>10.21</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.433</v>
+        <v>12.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.312</v>
+        <v>17.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.583</v>
+        <v>51.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.561</v>
+        <v>7.56</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.749</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44810.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.61</v>
+        <v>16.75</v>
       </c>
     </row>
   </sheetData>
